--- a/60_综合/学习笔记_综合_正则表达式.xlsx
+++ b/60_综合/学习笔记_综合_正则表达式.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="511">
   <si>
     <t>字符</t>
   </si>
@@ -1759,7 +1759,88 @@
   </si>
   <si>
     <r>
-      <t>匹配</t>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>xyz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>字符集合。匹配所包含的任意一个字符。例如，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> '[abc]' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以匹配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "plain" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 'a'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
     </r>
     <r>
       <rPr>
@@ -1770,6 +1851,11 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>[^</t>
+    </r>
     <r>
       <rPr>
         <i/>
@@ -1778,8 +1864,568 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
+      <t>xyz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>负值字符集合。匹配未包含的任意字符。例如，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> '[^abc]' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以匹配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "plain" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>'p'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>a-z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>字符范围。匹配指定范围内的任意字符。例如，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">'[a-z]' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以匹配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 'a' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 'z' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>范围内的任意小写字母字符。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[^</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>a-z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>负值字符范围。匹配任何不在指定范围内的任意字符。例如，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">'[^a-z]' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以匹配任何不在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 'a' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 'z' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>范围内的任意字符。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>匹配一个单词边界，也就是指单词和空格间的位置。例如，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 'er\b' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以匹配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"never" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 'er'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，但不能匹配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "verb" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 'er'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>\B</t>
+  </si>
+  <si>
+    <r>
+      <t>匹配非单词边界。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">'er\B' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>能匹配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "verb" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 'er'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，但不能匹配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "never" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 'er'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>\c</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
       <t>x</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>匹配由</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指明的控制字符。例如，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> \cM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>匹配一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Control-M </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或回车符。</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1791,6 +2437,44 @@
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的值必须为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> A-Z </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
@@ -1806,947 +2490,65 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve"> a-z </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>之一。否则，将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> c </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视为一个原义的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 'c' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字符。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。例如，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">'z|food' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>能匹配</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> "z" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>或</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> "food"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">'(z|f)ood' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>则匹配</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> "zood" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>或</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> "food"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>xyz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>字符集合。匹配所包含的任意一个字符。例如，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> '[abc]' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>可以匹配</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> "plain" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 'a'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[^</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>xyz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>负值字符集合。匹配未包含的任意字符。例如，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> '[^abc]' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>可以匹配</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> "plain" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>'p'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>a-z</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>字符范围。匹配指定范围内的任意字符。例如，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">'[a-z]' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>可以匹配</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 'a' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 'z' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>范围内的任意小写字母字符。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[^</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>a-z</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>负值字符范围。匹配任何不在指定范围内的任意字符。例如，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">'[^a-z]' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>可以匹配任何不在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 'a' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 'z' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>范围内的任意字符。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>匹配一个单词边界，也就是指单词和空格间的位置。例如，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 'er\b' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>可以匹配</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">"never" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 'er'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，但不能匹配</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> "verb" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 'er'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>\B</t>
-  </si>
-  <si>
-    <r>
-      <t>匹配非单词边界。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">'er\B' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>能匹配</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> "verb" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 'er'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，但不能匹配</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> "never" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 'er'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>\c</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>x</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>匹配由</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>指明的控制字符。例如，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> \cM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>匹配一个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Control-M </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>或回车符。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的值必须为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> A-Z </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>或</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> a-z </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>之一。否则，将</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> c </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>视为一个原义的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 'c' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>字符。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>\d</t>
   </si>
   <si>
     <r>
@@ -8220,6 +8022,217 @@
       </rPr>
       <t>。</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>匹配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。例如，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">'z|food' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>能匹配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "z" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "food"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">'(z|f)ood' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>则匹配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "zood" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "food"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>\d</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -8227,7 +8240,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8417,6 +8430,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Verdana"/>
@@ -8985,7 +9005,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9010,8 +9030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9032,7 +9052,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9040,7 +9060,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -9048,7 +9068,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -9056,7 +9076,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -9064,7 +9084,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -9072,7 +9092,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -9109,10 +9129,10 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="10" t="s">
-        <v>15</v>
+        <v>508</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="25.5">
@@ -9152,199 +9172,199 @@
         <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>25</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="10" t="s">
-        <v>39</v>
+        <v>510</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="25.5">
       <c r="A36" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="24.75">
       <c r="A38" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="25.5">
       <c r="A39" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -9369,66 +9389,66 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25">
       <c r="A1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B1"/>
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B2"/>
     </row>
     <row r="3" spans="1:2" ht="14.25">
       <c r="A3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B3"/>
     </row>
     <row r="4" spans="1:2" ht="14.25">
       <c r="A4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B4"/>
     </row>
     <row r="5" spans="1:2" ht="14.25">
       <c r="A5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B5"/>
     </row>
     <row r="6" spans="1:2" ht="14.25">
       <c r="A6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B6"/>
     </row>
     <row r="7" spans="1:2" ht="14.25">
       <c r="A7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B7"/>
     </row>
     <row r="8" spans="1:2" ht="14.25">
       <c r="A8" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B8"/>
     </row>
     <row r="9" spans="1:2" ht="14.25">
       <c r="A9" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B9"/>
     </row>
     <row r="10" spans="1:2" ht="14.25">
       <c r="B10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25">
       <c r="A11" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B11"/>
     </row>
@@ -9437,7 +9457,7 @@
     </row>
     <row r="13" spans="1:2" ht="14.25">
       <c r="B13" s="24" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14.25">
@@ -9445,32 +9465,32 @@
     </row>
     <row r="15" spans="1:2" ht="14.25">
       <c r="B15" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14.25">
       <c r="B16" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="14.25">
       <c r="B17" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="14.25">
       <c r="B18" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="14.25">
       <c r="B19" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="14.25">
       <c r="B20" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="14.25">
@@ -9478,142 +9498,142 @@
     </row>
     <row r="22" spans="2:2" ht="14.25">
       <c r="B22" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="14.25">
       <c r="B23" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="14.25">
       <c r="B24" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="14.25">
       <c r="B25" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="14.25">
       <c r="B26" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="14.25">
       <c r="B27" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="14.25">
       <c r="B28" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="14.25">
       <c r="B29" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="30" spans="2:2" ht="14.25">
       <c r="B30" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="14.25">
       <c r="B31" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="32" spans="2:2" ht="14.25">
       <c r="B32" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="14.25">
       <c r="B33" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="14.25">
       <c r="B34" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="14.25">
       <c r="B35" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="14.25">
       <c r="B36" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="14.25">
       <c r="B37" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="14.25">
       <c r="B38" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="14.25">
       <c r="B39" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="14.25">
       <c r="B40" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="41" spans="2:2" ht="14.25">
       <c r="B41" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="42" spans="2:2" ht="14.25">
       <c r="B42" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="43" spans="2:2" ht="14.25">
       <c r="B43" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="44" spans="2:2" ht="14.25">
       <c r="B44" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="45" spans="2:2" ht="14.25">
       <c r="B45" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="46" spans="2:2" ht="14.25">
       <c r="B46" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="47" spans="2:2" ht="14.25">
       <c r="B47" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="48" spans="2:2" ht="14.25">
       <c r="B48" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="14.25">
       <c r="B49" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="14.25">
@@ -9621,232 +9641,232 @@
     </row>
     <row r="51" spans="1:2" ht="14.25">
       <c r="B51" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="14.25">
       <c r="B52" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="14.25">
       <c r="B53" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="14.25">
       <c r="B54" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="14.25">
       <c r="B55" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="14.25">
       <c r="B56" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="14.25">
       <c r="B57" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="14.25">
       <c r="B58" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="23" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="14.25">
       <c r="B61" s="18" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="14.25">
       <c r="B62" s="22" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="14.25">
       <c r="B63" s="18" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="14.25">
       <c r="B64" s="18" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="65" spans="2:2" ht="14.25">
       <c r="B65" s="18" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="66" spans="2:2" ht="14.25">
       <c r="B66" s="18" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="67" spans="2:2" ht="14.25">
       <c r="B67" s="18" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="68" spans="2:2" ht="14.25">
       <c r="B68" s="18" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="69" spans="2:2" ht="14.25">
       <c r="B69" s="18" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="70" spans="2:2" ht="14.25">
       <c r="B70" s="18" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="71" spans="2:2" ht="14.25">
       <c r="B71" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="72" spans="2:2" ht="14.25">
       <c r="B72" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="73" spans="2:2" ht="14.25">
       <c r="B73" s="18" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="74" spans="2:2" ht="14.25">
       <c r="B74" s="18" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="75" spans="2:2" ht="14.25">
       <c r="B75" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="76" spans="2:2" ht="14.25">
       <c r="B76" s="18" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="77" spans="2:2" ht="14.25">
       <c r="B77" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="78" spans="2:2" ht="14.25">
       <c r="B78" s="18" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="79" spans="2:2" ht="14.25">
       <c r="B79" s="20" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="80" spans="2:2" ht="14.25">
       <c r="B80" s="20" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="81" spans="2:2" ht="14.25">
       <c r="B81" s="22" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="82" spans="2:2" ht="14.25">
       <c r="B82" s="18" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="83" spans="2:2" ht="14.25">
       <c r="B83" s="18" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="84" spans="2:2" ht="14.25">
       <c r="B84" s="18" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="85" spans="2:2" ht="14.25">
       <c r="B85" s="20" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="86" spans="2:2" ht="14.25">
       <c r="B86" s="18" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="87" spans="2:2" ht="14.25">
       <c r="B87" s="18" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="88" spans="2:2" ht="14.25">
       <c r="B88" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="89" spans="2:2" ht="14.25">
       <c r="B89" s="18" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="90" spans="2:2" ht="14.25">
       <c r="B90" s="18" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="91" spans="2:2" ht="14.25">
       <c r="B91" s="18" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="92" spans="2:2" ht="14.25">
       <c r="B92" s="18" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="93" spans="2:2" ht="14.25">
       <c r="B93" s="18" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="94" spans="2:2" ht="14.25">
       <c r="B94" s="18" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="95" spans="2:2" ht="14.25">
       <c r="B95" s="18" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="96" spans="2:2" ht="14.25">
       <c r="B96" s="20" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="97" spans="2:2" ht="14.25">
       <c r="B97" s="20" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="98" spans="2:2" ht="14.25">
@@ -9860,17 +9880,17 @@
     </row>
     <row r="101" spans="2:2" ht="14.25">
       <c r="B101" s="18" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="102" spans="2:2" ht="14.25">
       <c r="B102" s="18" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="103" spans="2:2" ht="14.25">
       <c r="B103" s="18" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="104" spans="2:2" ht="14.25">
@@ -9878,12 +9898,12 @@
     </row>
     <row r="105" spans="2:2" ht="14.25">
       <c r="B105" s="18" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="106" spans="2:2" ht="14.25">
       <c r="B106" s="18" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="107" spans="2:2" ht="14.25">
@@ -9891,12 +9911,12 @@
     </row>
     <row r="108" spans="2:2" ht="14.25">
       <c r="B108" s="18" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="109" spans="2:2" ht="14.25">
       <c r="B109" s="18" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="110" spans="2:2" ht="14.25">
@@ -9904,12 +9924,12 @@
     </row>
     <row r="111" spans="2:2" ht="14.25">
       <c r="B111" s="18" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="112" spans="2:2" ht="14.25">
       <c r="B112" s="18" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="113" spans="2:2" ht="14.25">
@@ -9920,27 +9940,27 @@
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="18" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="116" spans="2:2" ht="14.25">
       <c r="B116" s="18" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="117" spans="2:2" ht="14.25">
       <c r="B117" s="18" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="118" spans="2:2" ht="14.25">
       <c r="B118" s="18" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="119" spans="2:2" ht="14.25">
       <c r="B119" s="18" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="120" spans="2:2" ht="14.25">
@@ -9948,27 +9968,27 @@
     </row>
     <row r="121" spans="2:2" ht="14.25">
       <c r="B121" s="18" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="122" spans="2:2" ht="14.25">
       <c r="B122" s="18" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="123" spans="2:2" ht="14.25">
       <c r="B123" s="18" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="124" spans="2:2" ht="14.25">
       <c r="B124" s="18" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="125" spans="2:2" ht="14.25">
       <c r="B125" s="18" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="126" spans="2:2" ht="14.25">
@@ -9976,7 +9996,7 @@
     </row>
     <row r="127" spans="2:2" ht="14.25">
       <c r="B127" s="18" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="128" spans="2:2" ht="14.25">
@@ -9984,17 +10004,17 @@
     </row>
     <row r="129" spans="2:2" ht="14.25">
       <c r="B129" s="18" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="130" spans="2:2" ht="14.25">
       <c r="B130" s="18" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="131" spans="2:2" ht="14.25">
       <c r="B131" s="18" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="132" spans="2:2" ht="14.25">
@@ -10002,12 +10022,12 @@
     </row>
     <row r="133" spans="2:2" ht="14.25">
       <c r="B133" s="18" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="134" spans="2:2" ht="14.25">
       <c r="B134" s="18" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="135" spans="2:2" ht="14.25">
@@ -10015,17 +10035,17 @@
     </row>
     <row r="136" spans="2:2" ht="14.25">
       <c r="B136" s="18" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="137" spans="2:2" ht="14.25">
       <c r="B137" s="18" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="138" spans="2:2" ht="14.25">
       <c r="B138" s="18" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="139" spans="2:2" ht="14.25">
@@ -10033,17 +10053,17 @@
     </row>
     <row r="140" spans="2:2" ht="14.25">
       <c r="B140" s="18" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="141" spans="2:2" ht="14.25">
       <c r="B141" s="18" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="142" spans="2:2" ht="14.25">
       <c r="B142" s="18" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="143" spans="2:2" ht="14.25">
@@ -10051,7 +10071,7 @@
     </row>
     <row r="144" spans="2:2" ht="14.25">
       <c r="B144" s="18" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="145" spans="2:2" ht="14.25">
@@ -10059,17 +10079,17 @@
     </row>
     <row r="146" spans="2:2" ht="14.25">
       <c r="B146" s="18" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="147" spans="2:2" ht="14.25">
       <c r="B147" s="18" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="148" spans="2:2" ht="14.25">
       <c r="B148" s="18" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="149" spans="2:2" ht="14.25">
@@ -10077,12 +10097,12 @@
     </row>
     <row r="150" spans="2:2" ht="14.25">
       <c r="B150" s="18" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="151" spans="2:2" ht="14.25">
       <c r="B151" s="18" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="152" spans="2:2" ht="14.25">
@@ -10090,7 +10110,7 @@
     </row>
     <row r="153" spans="2:2" ht="14.25">
       <c r="B153" s="18" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="154" spans="2:2" ht="14.25">
@@ -10113,17 +10133,17 @@
     </row>
     <row r="160" spans="2:2" ht="14.25">
       <c r="B160" s="18" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="161" spans="2:2" ht="14.25">
       <c r="B161" s="18" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="162" spans="2:2" ht="14.25">
       <c r="B162" s="18" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="163" spans="2:2" ht="14.25">
@@ -10131,17 +10151,17 @@
     </row>
     <row r="164" spans="2:2" ht="14.25">
       <c r="B164" s="18" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="165" spans="2:2" ht="14.25">
       <c r="B165" s="18" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="166" spans="2:2" ht="14.25">
       <c r="B166" s="18" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="167" spans="2:2" ht="14.25">
@@ -10149,17 +10169,17 @@
     </row>
     <row r="168" spans="2:2" ht="14.25">
       <c r="B168" s="18" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="169" spans="2:2" ht="14.25">
       <c r="B169" s="18" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="170" spans="2:2" ht="14.25">
       <c r="B170" s="18" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="171" spans="2:2" ht="14.25">
@@ -10167,7 +10187,7 @@
     </row>
     <row r="172" spans="2:2" ht="14.25">
       <c r="B172" s="18" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="173" spans="2:2" ht="14.25">
@@ -10175,7 +10195,7 @@
     </row>
     <row r="174" spans="2:2" ht="14.25">
       <c r="B174" s="18" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="175" spans="2:2" ht="14.25">
@@ -10183,67 +10203,67 @@
     </row>
     <row r="176" spans="2:2" ht="14.25">
       <c r="B176" s="18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="177" spans="2:2" ht="14.25">
       <c r="B177" s="18" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="178" spans="2:2" ht="14.25">
       <c r="B178" s="18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="179" spans="2:2" ht="14.25">
       <c r="B179" s="18" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="180" spans="2:2" ht="14.25">
       <c r="B180" s="18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="181" spans="2:2" ht="14.25">
       <c r="B181" s="18" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="182" spans="2:2" ht="14.25">
       <c r="B182" s="18" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="183" spans="2:2" ht="14.25">
       <c r="B183" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="184" spans="2:2" ht="14.25">
       <c r="B184" s="18" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="185" spans="2:2" ht="14.25">
       <c r="B185" s="18" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="186" spans="2:2" ht="14.25">
       <c r="B186" s="18" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="187" spans="2:2" ht="14.25">
       <c r="B187" s="18" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="188" spans="2:2" ht="14.25">
       <c r="B188" s="18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="189" spans="2:2" ht="14.25">
@@ -10251,37 +10271,37 @@
     </row>
     <row r="190" spans="2:2" ht="14.25">
       <c r="B190" s="18" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="191" spans="2:2" ht="14.25">
       <c r="B191" s="18" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="192" spans="2:2" ht="14.25">
       <c r="B192" s="18" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="193" spans="2:2" ht="14.25">
       <c r="B193" s="18" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="194" spans="2:2" ht="14.25">
       <c r="B194" s="18" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="195" spans="2:2" ht="14.25">
       <c r="B195" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="196" spans="2:2" ht="14.25">
       <c r="B196" s="18" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="197" spans="2:2" ht="14.25">
@@ -10289,22 +10309,22 @@
     </row>
     <row r="198" spans="2:2" ht="14.25">
       <c r="B198" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="199" spans="2:2" ht="14.25">
       <c r="B199" s="18" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="200" spans="2:2" ht="14.25">
       <c r="B200" s="18" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="201" spans="2:2" ht="14.25">
       <c r="B201" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="202" spans="2:2" ht="14.25">
@@ -10312,7 +10332,7 @@
     </row>
     <row r="203" spans="2:2" ht="14.25">
       <c r="B203" s="18" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="204" spans="2:2" ht="14.25">
@@ -10320,122 +10340,122 @@
     </row>
     <row r="205" spans="2:2" ht="14.25">
       <c r="B205" s="18" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="206" spans="2:2" ht="14.25">
       <c r="B206" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="207" spans="2:2" ht="14.25">
       <c r="B207" s="18" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="208" spans="2:2" ht="14.25">
       <c r="B208" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="209" spans="2:2" ht="14.25">
       <c r="B209" s="18" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="210" spans="2:2" ht="14.25">
       <c r="B210" s="18" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="211" spans="2:2" ht="14.25">
       <c r="B211" s="18" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="212" spans="2:2" ht="14.25">
       <c r="B212" s="18" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="213" spans="2:2" ht="14.25">
       <c r="B213" s="18" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="214" spans="2:2" ht="14.25">
       <c r="B214" s="18" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="215" spans="2:2" ht="14.25">
       <c r="B215" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="216" spans="2:2" ht="14.25">
       <c r="B216" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="217" spans="2:2" ht="14.25">
       <c r="B217" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="218" spans="2:2" ht="14.25">
       <c r="B218" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="219" spans="2:2" ht="14.25">
       <c r="B219" s="18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="220" spans="2:2" ht="14.25">
       <c r="B220" s="18" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="221" spans="2:2" ht="14.25">
       <c r="B221" s="18" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="222" spans="2:2" ht="14.25">
       <c r="B222" s="18" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="223" spans="2:2" ht="14.25">
       <c r="B223" s="18" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="224" spans="2:2" ht="14.25">
       <c r="B224" s="18" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="225" spans="2:2" ht="14.25">
       <c r="B225" s="18" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="226" spans="2:2" ht="14.25">
       <c r="B226" s="18" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="227" spans="2:2" ht="14.25">
       <c r="B227" s="18" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="228" spans="2:2" ht="14.25">
       <c r="B228" s="18" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="229" spans="2:2" ht="14.25">
@@ -10446,327 +10466,327 @@
     </row>
     <row r="231" spans="2:2">
       <c r="B231" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="232" spans="2:2" ht="14.25">
       <c r="B232" s="18" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="233" spans="2:2" ht="14.25">
       <c r="B233" s="18" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="234" spans="2:2" ht="14.25">
       <c r="B234" s="18" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="235" spans="2:2" ht="14.25">
       <c r="B235" s="18" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="236" spans="2:2" ht="14.25">
       <c r="B236" s="18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="237" spans="2:2" ht="14.25">
       <c r="B237" s="18" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="238" spans="2:2" ht="14.25">
       <c r="B238" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="239" spans="2:2" ht="14.25">
       <c r="B239" s="18" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="240" spans="2:2" ht="14.25">
       <c r="B240" s="18" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="241" spans="2:2" ht="14.25">
       <c r="B241" s="18" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="242" spans="2:2" ht="14.25">
       <c r="B242" s="18" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="243" spans="2:2" ht="14.25">
       <c r="B243" s="18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="244" spans="2:2" ht="14.25">
       <c r="B244" s="18" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="245" spans="2:2" ht="14.25">
       <c r="B245" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="246" spans="2:2" ht="14.25">
       <c r="B246" s="18" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="247" spans="2:2" ht="14.25">
       <c r="B247" s="18" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="248" spans="2:2" ht="14.25">
       <c r="B248" s="18" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="249" spans="2:2" ht="14.25">
       <c r="B249" s="18" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="250" spans="2:2" ht="14.25">
       <c r="B250" s="18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="251" spans="2:2" ht="14.25">
       <c r="B251" s="18" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="252" spans="2:2" ht="14.25">
       <c r="B252" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="253" spans="2:2" ht="14.25">
       <c r="B253" s="18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="254" spans="2:2" ht="14.25">
       <c r="B254" s="18" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="255" spans="2:2" ht="14.25">
       <c r="B255" s="18" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="256" spans="2:2" ht="14.25">
       <c r="B256" s="18" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="257" spans="2:2" ht="14.25">
       <c r="B257" s="18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="258" spans="2:2" ht="14.25">
       <c r="B258" s="18" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="259" spans="2:2" ht="14.25">
       <c r="B259" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="260" spans="2:2" ht="14.25">
       <c r="B260" s="18" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="261" spans="2:2" ht="14.25">
       <c r="B261" s="18" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="262" spans="2:2" ht="14.25">
       <c r="B262" s="18" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="263" spans="2:2" ht="14.25">
       <c r="B263" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="264" spans="2:2" ht="14.25">
       <c r="B264" s="18" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="265" spans="2:2" ht="14.25">
       <c r="B265" s="18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="266" spans="2:2" ht="14.25">
       <c r="B266" s="18" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="267" spans="2:2" ht="14.25">
       <c r="B267" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="268" spans="2:2" ht="14.25">
       <c r="B268" s="18" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="269" spans="2:2" ht="14.25">
       <c r="B269" s="18" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="270" spans="2:2" ht="14.25">
       <c r="B270" s="18" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="271" spans="2:2" ht="14.25">
       <c r="B271" s="18" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="272" spans="2:2" ht="14.25">
       <c r="B272" s="18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="273" spans="2:2" ht="14.25">
       <c r="B273" s="18" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="274" spans="2:2" ht="14.25">
       <c r="B274" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="275" spans="2:2" ht="14.25">
       <c r="B275" s="18" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="276" spans="2:2" ht="14.25">
       <c r="B276" s="18" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="277" spans="2:2" ht="14.25">
       <c r="B277" s="18" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="278" spans="2:2" ht="14.25">
       <c r="B278" s="18" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="279" spans="2:2" ht="14.25">
       <c r="B279" s="18" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="280" spans="2:2" ht="14.25">
       <c r="B280" s="18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="281" spans="2:2" ht="14.25">
       <c r="B281" s="18" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="282" spans="2:2" ht="14.25">
       <c r="B282" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="283" spans="2:2" ht="14.25">
       <c r="B283" s="18" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="284" spans="2:2" ht="14.25">
       <c r="B284" s="18" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="285" spans="2:2" ht="14.25">
       <c r="B285" s="18" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="286" spans="2:2" ht="14.25">
       <c r="B286" s="18" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="287" spans="2:2" ht="14.25">
       <c r="B287" s="18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="288" spans="2:2" ht="14.25">
       <c r="B288" s="18" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="289" spans="2:2" ht="14.25">
       <c r="B289" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="290" spans="2:2" ht="14.25">
       <c r="B290" s="18" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="291" spans="2:2" ht="14.25">
       <c r="B291" s="18" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="292" spans="2:2" ht="14.25">
       <c r="B292" s="18" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="293" spans="2:2" ht="14.25">
       <c r="B293" s="18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="294" spans="2:2" ht="14.25">
       <c r="B294" s="18" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="295" spans="2:2" ht="14.25">
       <c r="B295" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="296" spans="2:2" ht="14.25">
@@ -10777,1012 +10797,1012 @@
     </row>
     <row r="298" spans="2:2" ht="14.25">
       <c r="B298" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="299" spans="2:2" ht="14.25">
       <c r="B299" s="18" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="300" spans="2:2" ht="14.25">
       <c r="B300" s="18" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="301" spans="2:2" ht="14.25">
       <c r="B301" s="18" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="302" spans="2:2" ht="14.25">
       <c r="B302" s="18" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="303" spans="2:2" ht="14.25">
       <c r="B303" s="18" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="304" spans="2:2" ht="14.25">
       <c r="B304" s="18" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="305" spans="2:2" ht="14.25">
       <c r="B305" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="306" spans="2:2" ht="14.25">
       <c r="B306" s="18" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="307" spans="2:2" ht="14.25">
       <c r="B307" s="18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="308" spans="2:2" ht="14.25">
       <c r="B308" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="309" spans="2:2" ht="14.25">
       <c r="B309" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="310" spans="2:2" ht="14.25">
       <c r="B310" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="311" spans="2:2" ht="14.25">
       <c r="B311" s="18" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="312" spans="2:2" ht="14.25">
       <c r="B312" s="18" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="313" spans="2:2" ht="14.25">
       <c r="B313" s="18" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="314" spans="2:2" ht="14.25">
       <c r="B314" s="18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="315" spans="2:2" ht="14.25">
       <c r="B315" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="316" spans="2:2" ht="14.25">
       <c r="B316" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="317" spans="2:2" ht="14.25">
       <c r="B317" s="18" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="318" spans="2:2" ht="14.25">
       <c r="B318" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="319" spans="2:2" ht="14.25">
       <c r="B319" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="320" spans="2:2" ht="14.25">
       <c r="B320" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="321" spans="2:2" ht="14.25">
       <c r="B321" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="322" spans="2:2" ht="14.25">
       <c r="B322" s="18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="323" spans="2:2" ht="14.25">
       <c r="B323" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="324" spans="2:2" ht="14.25">
       <c r="B324" s="18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="325" spans="2:2" ht="14.25">
       <c r="B325" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="326" spans="2:2" ht="14.25">
       <c r="B326" s="18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="327" spans="2:2" ht="14.25">
       <c r="B327" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="328" spans="2:2" ht="14.25">
       <c r="B328" s="18" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="329" spans="2:2" ht="14.25">
       <c r="B329" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="330" spans="2:2" ht="14.25">
       <c r="B330" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="331" spans="2:2" ht="14.25">
       <c r="B331" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="332" spans="2:2" ht="14.25">
       <c r="B332" s="18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="333" spans="2:2" ht="14.25">
       <c r="B333" s="18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="334" spans="2:2" ht="14.25">
       <c r="B334" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="335" spans="2:2" ht="14.25">
       <c r="B335" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="336" spans="2:2" ht="14.25">
       <c r="B336" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="337" spans="2:2" ht="14.25">
       <c r="B337" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="338" spans="2:2" ht="14.25">
       <c r="B338" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="339" spans="2:2" ht="14.25">
       <c r="B339" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="340" spans="2:2" ht="14.25">
       <c r="B340" s="18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="341" spans="2:2" ht="14.25">
       <c r="B341" s="18" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="342" spans="2:2" ht="14.25">
       <c r="B342" s="18" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="343" spans="2:2" ht="14.25">
       <c r="B343" s="18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="344" spans="2:2" ht="14.25">
       <c r="B344" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="345" spans="2:2" ht="14.25">
       <c r="B345" s="18" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="346" spans="2:2" ht="14.25">
       <c r="B346" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="347" spans="2:2" ht="14.25">
       <c r="B347" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="348" spans="2:2" ht="14.25">
       <c r="B348" s="18" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="349" spans="2:2" ht="14.25">
       <c r="B349" s="18" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="350" spans="2:2" ht="14.25">
       <c r="B350" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="351" spans="2:2" ht="14.25">
       <c r="B351" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="352" spans="2:2" ht="14.25">
       <c r="B352" s="18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="353" spans="2:2" ht="14.25">
       <c r="B353" s="18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="354" spans="2:2" ht="14.25">
       <c r="B354" s="18" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="355" spans="2:2" ht="14.25">
       <c r="B355" s="18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="356" spans="2:2" ht="14.25">
       <c r="B356" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="357" spans="2:2" ht="14.25">
       <c r="B357" s="18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="358" spans="2:2" ht="14.25">
       <c r="B358" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="359" spans="2:2" ht="14.25">
       <c r="B359" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="360" spans="2:2" ht="14.25">
       <c r="B360" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="361" spans="2:2" ht="14.25">
       <c r="B361" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="362" spans="2:2" ht="14.25">
       <c r="B362" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="363" spans="2:2" ht="14.25">
       <c r="B363" s="18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="364" spans="2:2" ht="14.25">
       <c r="B364" s="18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="365" spans="2:2" ht="14.25">
       <c r="B365" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="366" spans="2:2" ht="14.25">
       <c r="B366" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="367" spans="2:2" ht="14.25">
       <c r="B367" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="368" spans="2:2" ht="14.25">
       <c r="B368" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="369" spans="2:2" ht="14.25">
       <c r="B369" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="370" spans="2:2" ht="14.25">
       <c r="B370" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="371" spans="2:2" ht="14.25">
       <c r="B371" s="18" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="372" spans="2:2" ht="14.25">
       <c r="B372" s="18" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="373" spans="2:2" ht="14.25">
       <c r="B373" s="18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="374" spans="2:2" ht="14.25">
       <c r="B374" s="18" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="375" spans="2:2" ht="14.25">
       <c r="B375" s="18" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="376" spans="2:2" ht="14.25">
       <c r="B376" s="18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="377" spans="2:2" ht="14.25">
       <c r="B377" s="18" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="378" spans="2:2" ht="14.25">
       <c r="B378" s="18" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="379" spans="2:2" ht="14.25">
       <c r="B379" s="18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="380" spans="2:2" ht="14.25">
       <c r="B380" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="381" spans="2:2" ht="14.25">
       <c r="B381" s="18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="382" spans="2:2" ht="14.25">
       <c r="B382" s="18" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="383" spans="2:2" ht="14.25">
       <c r="B383" s="18" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="384" spans="2:2" ht="14.25">
       <c r="B384" s="18" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="385" spans="2:2" ht="14.25">
       <c r="B385" s="18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="386" spans="2:2" ht="14.25">
       <c r="B386" s="18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="387" spans="2:2" ht="14.25">
       <c r="B387" s="18" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="388" spans="2:2" ht="14.25">
       <c r="B388" s="18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="389" spans="2:2" ht="14.25">
       <c r="B389" s="18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="390" spans="2:2" ht="14.25">
       <c r="B390" s="18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="391" spans="2:2" ht="14.25">
       <c r="B391" s="18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="392" spans="2:2" ht="14.25">
       <c r="B392" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="393" spans="2:2" ht="14.25">
       <c r="B393" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="394" spans="2:2" ht="14.25">
       <c r="B394" s="18" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="395" spans="2:2" ht="14.25">
       <c r="B395" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="396" spans="2:2" ht="14.25">
       <c r="B396" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="397" spans="2:2" ht="14.25">
       <c r="B397" s="18" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="398" spans="2:2" ht="14.25">
       <c r="B398" s="18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="399" spans="2:2" ht="14.25">
       <c r="B399" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="400" spans="2:2" ht="14.25">
       <c r="B400" s="18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="401" spans="2:2" ht="14.25">
       <c r="B401" s="18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="402" spans="2:2" ht="14.25">
       <c r="B402" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="403" spans="2:2" ht="14.25">
       <c r="B403" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="404" spans="2:2" ht="14.25">
       <c r="B404" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="405" spans="2:2" ht="14.25">
       <c r="B405" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="406" spans="2:2" ht="14.25">
       <c r="B406" s="18" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="407" spans="2:2" ht="14.25">
       <c r="B407" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="408" spans="2:2" ht="14.25">
       <c r="B408" s="18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="409" spans="2:2" ht="14.25">
       <c r="B409" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="410" spans="2:2" ht="14.25">
       <c r="B410" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="411" spans="2:2" ht="14.25">
       <c r="B411" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="412" spans="2:2" ht="14.25">
       <c r="B412" s="18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="413" spans="2:2" ht="14.25">
       <c r="B413" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="414" spans="2:2" ht="14.25">
       <c r="B414" s="18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="415" spans="2:2" ht="14.25">
       <c r="B415" s="18" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="416" spans="2:2" ht="14.25">
       <c r="B416" s="18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="417" spans="2:2" ht="14.25">
       <c r="B417" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="418" spans="2:2" ht="14.25">
       <c r="B418" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="419" spans="2:2" ht="14.25">
       <c r="B419" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="420" spans="2:2" ht="14.25">
       <c r="B420" s="18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="421" spans="2:2" ht="14.25">
       <c r="B421" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="422" spans="2:2" ht="14.25">
       <c r="B422" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="423" spans="2:2" ht="14.25">
       <c r="B423" s="18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="424" spans="2:2" ht="14.25">
       <c r="B424" s="18" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="425" spans="2:2" ht="14.25">
       <c r="B425" s="18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="426" spans="2:2" ht="14.25">
       <c r="B426" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="427" spans="2:2" ht="14.25">
       <c r="B427" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="428" spans="2:2" ht="14.25">
       <c r="B428" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="429" spans="2:2" ht="14.25">
       <c r="B429" s="18" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="430" spans="2:2" ht="14.25">
       <c r="B430" s="18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="431" spans="2:2" ht="14.25">
       <c r="B431" s="18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="432" spans="2:2" ht="14.25">
       <c r="B432" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="433" spans="2:2" ht="14.25">
       <c r="B433" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="434" spans="2:2" ht="14.25">
       <c r="B434" s="18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="435" spans="2:2" ht="14.25">
       <c r="B435" s="18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="436" spans="2:2" ht="14.25">
       <c r="B436" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="437" spans="2:2" ht="14.25">
       <c r="B437" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="438" spans="2:2" ht="14.25">
       <c r="B438" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="439" spans="2:2" ht="14.25">
       <c r="B439" s="18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="440" spans="2:2" ht="14.25">
       <c r="B440" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="441" spans="2:2" ht="14.25">
       <c r="B441" s="18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="442" spans="2:2" ht="14.25">
       <c r="B442" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="443" spans="2:2" ht="14.25">
       <c r="B443" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="444" spans="2:2" ht="14.25">
       <c r="B444" s="18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="445" spans="2:2" ht="14.25">
       <c r="B445" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="446" spans="2:2" ht="14.25">
       <c r="B446" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="447" spans="2:2" ht="14.25">
       <c r="B447" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="448" spans="2:2" ht="14.25">
       <c r="B448" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="449" spans="2:2" ht="14.25">
       <c r="B449" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="450" spans="2:2" ht="14.25">
       <c r="B450" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="451" spans="2:2" ht="14.25">
       <c r="B451" s="18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="452" spans="2:2" ht="14.25">
       <c r="B452" s="18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="453" spans="2:2" ht="14.25">
       <c r="B453" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="454" spans="2:2">
       <c r="B454" s="18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="455" spans="2:2" ht="14.25">
       <c r="B455" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="456" spans="2:2" ht="14.25">
       <c r="B456" s="18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="457" spans="2:2" ht="14.25">
       <c r="B457" s="18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="458" spans="2:2" ht="14.25">
       <c r="B458" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="459" spans="2:2" ht="14.25">
       <c r="B459" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="460" spans="2:2" ht="14.25">
       <c r="B460" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="461" spans="2:2" ht="14.25">
       <c r="B461" s="18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="462" spans="2:2" ht="14.25">
       <c r="B462" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="463" spans="2:2" ht="14.25">
       <c r="B463" s="18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="464" spans="2:2" ht="14.25">
       <c r="B464" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="465" spans="2:2" ht="14.25">
       <c r="B465" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="466" spans="2:2" ht="14.25">
       <c r="B466" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="467" spans="2:2" ht="14.25">
       <c r="B467" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="468" spans="2:2" ht="14.25">
       <c r="B468" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="469" spans="2:2" ht="14.25">
       <c r="B469" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="470" spans="2:2" ht="14.25">
       <c r="B470" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="471" spans="2:2" ht="14.25">
       <c r="B471" s="18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="472" spans="2:2" ht="14.25">
       <c r="B472" s="18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="473" spans="2:2" ht="14.25">
       <c r="B473" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="474" spans="2:2" ht="14.25">
       <c r="B474" s="18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="475" spans="2:2" ht="14.25">
       <c r="B475" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="476" spans="2:2" ht="14.25">
       <c r="B476" s="18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="477" spans="2:2" ht="14.25">
       <c r="B477" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="478" spans="2:2" ht="14.25">
       <c r="B478" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="479" spans="2:2" ht="14.25">
       <c r="B479" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="480" spans="2:2" ht="14.25">
       <c r="B480" s="18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="481" spans="2:2" ht="14.25">
       <c r="B481" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="482" spans="2:2" ht="14.25">
       <c r="B482" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="483" spans="2:2" ht="14.25">
       <c r="B483" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="484" spans="2:2" ht="14.25">
       <c r="B484" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="485" spans="2:2" ht="14.25">
       <c r="B485" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="486" spans="2:2" ht="14.25">
       <c r="B486" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="487" spans="2:2" ht="14.25">
       <c r="B487" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="488" spans="2:2" ht="14.25">
       <c r="B488" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="489" spans="2:2" ht="14.25">
       <c r="B489" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="490" spans="2:2" ht="14.25">
       <c r="B490" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="491" spans="2:2" ht="14.25">
       <c r="B491" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="492" spans="2:2" ht="14.25">
       <c r="B492" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="493" spans="2:2" ht="14.25">
       <c r="B493" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="494" spans="2:2" ht="14.25">
       <c r="B494" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="495" spans="2:2" ht="14.25">
       <c r="B495" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="496" spans="2:2" ht="14.25">
       <c r="B496" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="497" spans="2:2" ht="14.25">
       <c r="B497" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="498" spans="2:2" ht="14.25">
       <c r="B498" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="499" spans="2:2" ht="14.25">
       <c r="B499" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="500" spans="2:2" ht="14.25">
@@ -11790,87 +11810,87 @@
     </row>
     <row r="501" spans="2:2" ht="14.25">
       <c r="B501" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="502" spans="2:2" ht="14.25">
       <c r="B502" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="503" spans="2:2" ht="14.25">
       <c r="B503" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="504" spans="2:2" ht="14.25">
       <c r="B504" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="505" spans="2:2" ht="14.25">
       <c r="B505" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="506" spans="2:2">
       <c r="B506" s="18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="507" spans="2:2" ht="14.25">
       <c r="B507" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="508" spans="2:2">
       <c r="B508" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="509" spans="2:2" ht="14.25">
       <c r="B509" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="510" spans="2:2">
       <c r="B510" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="511" spans="2:2" ht="14.25">
       <c r="B511" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="512" spans="2:2" ht="14.25">
       <c r="B512" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="513" spans="2:2" ht="14.25">
       <c r="B513" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="514" spans="2:2" ht="14.25">
       <c r="B514" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="515" spans="2:2" ht="14.25">
       <c r="B515" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="516" spans="2:2" ht="14.25">
       <c r="B516" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="517" spans="2:2" ht="14.25">
       <c r="B517" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="518" spans="2:2" ht="14.25">
@@ -11881,232 +11901,232 @@
     </row>
     <row r="520" spans="2:2" ht="14.25">
       <c r="B520" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="521" spans="2:2" ht="14.25">
       <c r="B521" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="522" spans="2:2" ht="14.25">
       <c r="B522" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="523" spans="2:2" ht="14.25">
       <c r="B523" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="524" spans="2:2" ht="14.25">
       <c r="B524" s="18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="525" spans="2:2" ht="14.25">
       <c r="B525" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="526" spans="2:2" ht="14.25">
       <c r="B526" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="527" spans="2:2" ht="14.25">
       <c r="B527" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="528" spans="2:2" ht="14.25">
       <c r="B528" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="529" spans="2:2" ht="14.25">
       <c r="B529" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="530" spans="2:2" ht="14.25">
       <c r="B530" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="531" spans="2:2" ht="14.25">
       <c r="B531" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="532" spans="2:2" ht="14.25">
       <c r="B532" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="533" spans="2:2" ht="14.25">
       <c r="B533" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="534" spans="2:2" ht="14.25">
       <c r="B534" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="535" spans="2:2" ht="14.25">
       <c r="B535" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="536" spans="2:2" ht="14.25">
       <c r="B536" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="537" spans="2:2" ht="14.25">
       <c r="B537" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="538" spans="2:2" ht="14.25">
       <c r="B538" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="539" spans="2:2" ht="14.25">
       <c r="B539" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="540" spans="2:2" ht="14.25">
       <c r="B540" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="541" spans="2:2" ht="14.25">
       <c r="B541" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="542" spans="2:2" ht="14.25">
       <c r="B542" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="543" spans="2:2" ht="14.25">
       <c r="B543" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="544" spans="2:2" ht="14.25">
       <c r="B544" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="545" spans="2:2" ht="14.25">
       <c r="B545" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="546" spans="2:2" ht="14.25">
       <c r="B546" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="547" spans="2:2" ht="14.25">
       <c r="B547" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="548" spans="2:2" ht="14.25">
       <c r="B548" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="549" spans="2:2" ht="14.25">
       <c r="B549" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="550" spans="2:2" ht="14.25">
       <c r="B550" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="551" spans="2:2" ht="14.25">
       <c r="B551" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="552" spans="2:2" ht="14.25">
       <c r="B552" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="553" spans="2:2" ht="14.25">
       <c r="B553" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="554" spans="2:2" ht="14.25">
       <c r="B554" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="555" spans="2:2" ht="14.25">
       <c r="B555" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="556" spans="2:2" ht="14.25">
       <c r="B556" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="557" spans="2:2" ht="14.25">
       <c r="B557" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="558" spans="2:2" ht="14.25">
       <c r="B558" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="559" spans="2:2" ht="14.25">
       <c r="B559" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="560" spans="2:2" ht="14.25">
       <c r="B560" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="561" spans="1:3" ht="14.25">
       <c r="B561" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="562" spans="1:3" ht="14.25">
       <c r="B562" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="563" spans="1:3" ht="14.25">
       <c r="B563" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="564" spans="1:3" ht="14.25">
       <c r="B564" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="565" spans="1:3" ht="14.25">
       <c r="B565" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="566" spans="1:3" ht="14.25">
@@ -12120,7 +12140,7 @@
     </row>
     <row r="569" spans="1:3" ht="21.75" thickBot="1">
       <c r="A569" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B569" s="18"/>
     </row>
@@ -12129,15 +12149,15 @@
         <v>4</v>
       </c>
       <c r="C570" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="571" spans="1:3" ht="15" thickBot="1">
       <c r="B571" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C571" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="572" spans="1:3" ht="15" thickBot="1">
@@ -12145,7 +12165,7 @@
         <v>5</v>
       </c>
       <c r="C572" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="573" spans="1:3" ht="15" thickBot="1">
@@ -12153,7 +12173,7 @@
         <v>6</v>
       </c>
       <c r="C573" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="574" spans="1:3" ht="15" thickBot="1">
@@ -12161,15 +12181,15 @@
         <v>15</v>
       </c>
       <c r="C574" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="575" spans="1:3" ht="15" thickBot="1">
       <c r="B575" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C575" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="576" spans="1:3" ht="15" thickBot="1">
@@ -12177,7 +12197,7 @@
         <v>7</v>
       </c>
       <c r="C576" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="577" spans="2:3" ht="15" thickBot="1">
@@ -12185,7 +12205,7 @@
         <v>2</v>
       </c>
       <c r="C577" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="578" spans="2:3" ht="15" thickBot="1">
@@ -12193,23 +12213,23 @@
         <v>3</v>
       </c>
       <c r="C578" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="579" spans="2:3" ht="15" thickBot="1">
       <c r="B579" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C579" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="580" spans="2:3" ht="15" thickBot="1">
       <c r="B580" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C580" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -12241,19 +12261,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20.25">
       <c r="A1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -12261,13 +12281,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E2" s="6"/>
     </row>

--- a/60_综合/学习笔记_综合_正则表达式.xlsx
+++ b/60_综合/学习笔记_综合_正则表达式.xlsx
@@ -4,14 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="5" r:id="rId1"/>
     <sheet name="基础" sheetId="1" r:id="rId2"/>
     <sheet name="示例" sheetId="2" r:id="rId3"/>
     <sheet name="知识点" sheetId="3" r:id="rId4"/>
-    <sheet name="参考" sheetId="4" r:id="rId5"/>
+    <sheet name="重点示例" sheetId="7" r:id="rId5"/>
+    <sheet name="转义" sheetId="6" r:id="rId6"/>
+    <sheet name="参考" sheetId="4" r:id="rId7"/>
+    <sheet name="SQL示例" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="547">
   <si>
     <t>字符</t>
   </si>
@@ -2539,39 +2542,6 @@
         <charset val="134"/>
       </rPr>
       <t>字符。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>匹配一个数字字符。等价于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> [0-9]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
     </r>
     <r>
       <rPr>
@@ -8233,6 +8203,213 @@
   </si>
   <si>
     <t>\d</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>一些常用的正则表达式转义字符</t>
+  </si>
+  <si>
+    <t>转义字符</t>
+  </si>
+  <si>
+    <t>含义</t>
+  </si>
+  <si>
+    <t>匹配反斜杠本身</t>
+  </si>
+  <si>
+    <t>匹配分支，相当于或（OR）的意思</t>
+  </si>
+  <si>
+    <t>匹配重复一次或多次</t>
+  </si>
+  <si>
+    <t>匹配重复零次或多次</t>
+  </si>
+  <si>
+    <t>\?</t>
+  </si>
+  <si>
+    <t>匹配重复零次或一次</t>
+  </si>
+  <si>
+    <t>\^</t>
+  </si>
+  <si>
+    <t>匹配字符串的起始位置</t>
+  </si>
+  <si>
+    <t>\$</t>
+  </si>
+  <si>
+    <t>匹配字符串的结束位置</t>
+  </si>
+  <si>
+    <t>匹配任意字符（除了换行符）</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>匹配字符集合的起始位置</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>匹配字符集合的结束位置</t>
+  </si>
+  <si>
+    <t>匹配重复次数的起始位置</t>
+  </si>
+  <si>
+    <t>匹配重复次数的结束位置</t>
+  </si>
+  <si>
+    <t>针对{}()-'都要加上转义符，否则会报错</t>
+  </si>
+  <si>
+    <t>[\u4e00-\u9fa5]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹配中文</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>\'[^']+\'</t>
+  </si>
+  <si>
+    <t>双单引号包裹的内部不含单引号的正则式</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>匹配一个数字字符。等价于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [0-9]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/*支持TO_DATE且加指定天；列名支持A.COL_NAME，@COL_NAME，#COL_NAME#，'#COL_NAME#','{0}'*/</t>
+  </si>
+  <si>
+    <t>//全部匹配：但很慢，要24秒。最后经过分析发现，不加最后的[\d./]+，就是0.03秒出来，加上后就为24秒以上了。</t>
+  </si>
+  <si>
+    <t>//优化后：进一步将\d改为\w，速度立刻为0.03秒。由些可见，谨慎使用\d。</t>
+  </si>
+  <si>
+    <t>关于使用\w替代\d后，性能大大提升的例子：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//string sDateAddPatter = @"\s*,*\s*TO_DATE\s*\(\s*(((\w+\.)*\w+)|(@\w+)|(\'?#?\w+#?\'?)|(\'[^']+\'))+\s*,\s*\'YYYY[-/]?MM[-/]?DD(\s+\w+(:\w+)*)*\'\)\s*[+-]?\s*[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\./]+";</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>string sDateAddPatter = @"\s*,*\s*TO_DATE\s*\(\s*(((\w+\.)*\w+)|(@\w+)|(\'?#?\w+#?\'?)|(\'[^']+\'))+\s*,\s*\'YYYY[-/]?MM[-/]?DD(\s+\w+(:\w+)*)*\'\)\s*[\+-]?\s*[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\./]+";</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL跨库转换示例</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>正则式：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL语句：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>\s*,*\s*TO_((DATE)|(CHAR))\s*\(\s*([\'\w\.#@])+\s*,\s*\'[\w-/:\s]*\'\)\s*,?</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT  TO_CHAR(A.OUT_STORE_DATE, 'YYYY/MM/DD') OUT_STORE_DATE,
+ TO_DATE(A.OUT_STORE_DATE, 'YY') OUT_STORE_DATE,
+  DECODE(NVL(A.FI_AUDIT_FLAG,'0'), '1', '已审核', '未审核') AUDIT_FLAG,
+ TO_CHAR( A.FI_AUDIT_DATE ,     'YYYY-MM-DD hh24:mi:ss:ff3') FI_AUDIT_DATE
+FROM T_PA_BU_OEM_OUT_STORE A
+INNER JOIN T_MDM_ORG_DLR B
+ ON A.DLR_ID = B.DLR_ID
+where A.CREATED_DATE &gt; TO_DATE('#CAL_DATE_BEG#', 'YYYY/MM/DD') 
+and A.CREATED_DATE &lt; TO_DATE('#CAL_DATE_BEG#', 'YYYY/MM/DD')  + 2</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -8240,7 +8417,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8442,8 +8619,71 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8468,8 +8708,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -8597,11 +8849,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8670,6 +9091,62 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9030,7 +9507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -9052,7 +9529,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9060,7 +9537,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -9068,7 +9545,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -9076,7 +9553,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -9084,7 +9561,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -9092,7 +9569,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -9129,10 +9606,10 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="25.5">
@@ -9172,7 +9649,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -9209,7 +9686,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>33</v>
@@ -9233,138 +9710,138 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>38</v>
+        <v>535</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="25" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="25.5">
       <c r="A36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="24.75">
       <c r="A38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="25.5">
       <c r="A39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -9378,7 +9855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C580"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A265" workbookViewId="0">
       <selection activeCell="B570" sqref="B570"/>
     </sheetView>
   </sheetViews>
@@ -9389,66 +9866,66 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25">
       <c r="A1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B1"/>
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B2"/>
     </row>
     <row r="3" spans="1:2" ht="14.25">
       <c r="A3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B3"/>
     </row>
     <row r="4" spans="1:2" ht="14.25">
       <c r="A4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B4"/>
     </row>
     <row r="5" spans="1:2" ht="14.25">
       <c r="A5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B5"/>
     </row>
     <row r="6" spans="1:2" ht="14.25">
       <c r="A6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B6"/>
     </row>
     <row r="7" spans="1:2" ht="14.25">
       <c r="A7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B7"/>
     </row>
     <row r="8" spans="1:2" ht="14.25">
       <c r="A8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B8"/>
     </row>
     <row r="9" spans="1:2" ht="14.25">
       <c r="A9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B9"/>
     </row>
     <row r="10" spans="1:2" ht="14.25">
       <c r="B10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25">
       <c r="A11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B11"/>
     </row>
@@ -9457,7 +9934,7 @@
     </row>
     <row r="13" spans="1:2" ht="14.25">
       <c r="B13" s="24" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14.25">
@@ -9465,32 +9942,32 @@
     </row>
     <row r="15" spans="1:2" ht="14.25">
       <c r="B15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14.25">
       <c r="B16" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="14.25">
       <c r="B17" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="14.25">
       <c r="B18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="14.25">
       <c r="B19" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="14.25">
       <c r="B20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="14.25">
@@ -9498,142 +9975,142 @@
     </row>
     <row r="22" spans="2:2" ht="14.25">
       <c r="B22" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="14.25">
       <c r="B23" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="14.25">
       <c r="B24" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="14.25">
       <c r="B25" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="14.25">
       <c r="B26" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="14.25">
       <c r="B27" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="14.25">
       <c r="B28" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="14.25">
       <c r="B29" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="2:2" ht="14.25">
       <c r="B30" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="14.25">
       <c r="B31" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32" spans="2:2" ht="14.25">
       <c r="B32" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="14.25">
       <c r="B33" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="14.25">
       <c r="B34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="14.25">
       <c r="B35" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="14.25">
       <c r="B36" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="14.25">
       <c r="B37" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="14.25">
       <c r="B38" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="14.25">
       <c r="B39" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="14.25">
       <c r="B40" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="41" spans="2:2" ht="14.25">
       <c r="B41" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="42" spans="2:2" ht="14.25">
       <c r="B42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="43" spans="2:2" ht="14.25">
       <c r="B43" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="44" spans="2:2" ht="14.25">
       <c r="B44" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="45" spans="2:2" ht="14.25">
       <c r="B45" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="46" spans="2:2" ht="14.25">
       <c r="B46" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="47" spans="2:2" ht="14.25">
       <c r="B47" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="48" spans="2:2" ht="14.25">
       <c r="B48" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="14.25">
       <c r="B49" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="14.25">
@@ -9641,232 +10118,232 @@
     </row>
     <row r="51" spans="1:2" ht="14.25">
       <c r="B51" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="14.25">
       <c r="B52" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="14.25">
       <c r="B53" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="14.25">
       <c r="B54" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="14.25">
       <c r="B55" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="14.25">
       <c r="B56" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="14.25">
       <c r="B57" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="14.25">
       <c r="B58" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="23" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="14.25">
       <c r="B61" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="14.25">
       <c r="B62" s="22" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="14.25">
       <c r="B63" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="14.25">
       <c r="B64" s="18" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="65" spans="2:2" ht="14.25">
       <c r="B65" s="18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="66" spans="2:2" ht="14.25">
       <c r="B66" s="18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="67" spans="2:2" ht="14.25">
       <c r="B67" s="18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="68" spans="2:2" ht="14.25">
       <c r="B68" s="18" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="69" spans="2:2" ht="14.25">
       <c r="B69" s="18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="70" spans="2:2" ht="14.25">
       <c r="B70" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="71" spans="2:2" ht="14.25">
       <c r="B71" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="72" spans="2:2" ht="14.25">
       <c r="B72" s="18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="73" spans="2:2" ht="14.25">
       <c r="B73" s="18" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="74" spans="2:2" ht="14.25">
       <c r="B74" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="75" spans="2:2" ht="14.25">
       <c r="B75" s="21" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="76" spans="2:2" ht="14.25">
       <c r="B76" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="77" spans="2:2" ht="14.25">
       <c r="B77" s="18" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="78" spans="2:2" ht="14.25">
       <c r="B78" s="18" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="79" spans="2:2" ht="14.25">
       <c r="B79" s="20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="80" spans="2:2" ht="14.25">
       <c r="B80" s="20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="81" spans="2:2" ht="14.25">
       <c r="B81" s="22" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="82" spans="2:2" ht="14.25">
       <c r="B82" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="83" spans="2:2" ht="14.25">
       <c r="B83" s="18" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="84" spans="2:2" ht="14.25">
       <c r="B84" s="18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="85" spans="2:2" ht="14.25">
       <c r="B85" s="20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="86" spans="2:2" ht="14.25">
       <c r="B86" s="18" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="87" spans="2:2" ht="14.25">
       <c r="B87" s="18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="88" spans="2:2" ht="14.25">
       <c r="B88" s="21" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="89" spans="2:2" ht="14.25">
       <c r="B89" s="18" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="90" spans="2:2" ht="14.25">
       <c r="B90" s="18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="91" spans="2:2" ht="14.25">
       <c r="B91" s="18" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="92" spans="2:2" ht="14.25">
       <c r="B92" s="18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="93" spans="2:2" ht="14.25">
       <c r="B93" s="18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="94" spans="2:2" ht="14.25">
       <c r="B94" s="18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="95" spans="2:2" ht="14.25">
       <c r="B95" s="18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="96" spans="2:2" ht="14.25">
       <c r="B96" s="20" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="97" spans="2:2" ht="14.25">
       <c r="B97" s="20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="98" spans="2:2" ht="14.25">
@@ -9880,17 +10357,17 @@
     </row>
     <row r="101" spans="2:2" ht="14.25">
       <c r="B101" s="18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="102" spans="2:2" ht="14.25">
       <c r="B102" s="18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="103" spans="2:2" ht="14.25">
       <c r="B103" s="18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="104" spans="2:2" ht="14.25">
@@ -9898,12 +10375,12 @@
     </row>
     <row r="105" spans="2:2" ht="14.25">
       <c r="B105" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="106" spans="2:2" ht="14.25">
       <c r="B106" s="18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="107" spans="2:2" ht="14.25">
@@ -9911,12 +10388,12 @@
     </row>
     <row r="108" spans="2:2" ht="14.25">
       <c r="B108" s="18" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="109" spans="2:2" ht="14.25">
       <c r="B109" s="18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="110" spans="2:2" ht="14.25">
@@ -9924,12 +10401,12 @@
     </row>
     <row r="111" spans="2:2" ht="14.25">
       <c r="B111" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="112" spans="2:2" ht="14.25">
       <c r="B112" s="18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="113" spans="2:2" ht="14.25">
@@ -9940,27 +10417,27 @@
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="116" spans="2:2" ht="14.25">
       <c r="B116" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="117" spans="2:2" ht="14.25">
       <c r="B117" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="118" spans="2:2" ht="14.25">
       <c r="B118" s="18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="119" spans="2:2" ht="14.25">
       <c r="B119" s="18" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="120" spans="2:2" ht="14.25">
@@ -9968,27 +10445,27 @@
     </row>
     <row r="121" spans="2:2" ht="14.25">
       <c r="B121" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="122" spans="2:2" ht="14.25">
       <c r="B122" s="18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="123" spans="2:2" ht="14.25">
       <c r="B123" s="18" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="124" spans="2:2" ht="14.25">
       <c r="B124" s="18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="125" spans="2:2" ht="14.25">
       <c r="B125" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="126" spans="2:2" ht="14.25">
@@ -9996,7 +10473,7 @@
     </row>
     <row r="127" spans="2:2" ht="14.25">
       <c r="B127" s="18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="128" spans="2:2" ht="14.25">
@@ -10004,17 +10481,17 @@
     </row>
     <row r="129" spans="2:2" ht="14.25">
       <c r="B129" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="130" spans="2:2" ht="14.25">
       <c r="B130" s="18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="131" spans="2:2" ht="14.25">
       <c r="B131" s="18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="132" spans="2:2" ht="14.25">
@@ -10022,12 +10499,12 @@
     </row>
     <row r="133" spans="2:2" ht="14.25">
       <c r="B133" s="18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="134" spans="2:2" ht="14.25">
       <c r="B134" s="18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="135" spans="2:2" ht="14.25">
@@ -10035,17 +10512,17 @@
     </row>
     <row r="136" spans="2:2" ht="14.25">
       <c r="B136" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="137" spans="2:2" ht="14.25">
       <c r="B137" s="18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="138" spans="2:2" ht="14.25">
       <c r="B138" s="18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="139" spans="2:2" ht="14.25">
@@ -10053,17 +10530,17 @@
     </row>
     <row r="140" spans="2:2" ht="14.25">
       <c r="B140" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="141" spans="2:2" ht="14.25">
       <c r="B141" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="142" spans="2:2" ht="14.25">
       <c r="B142" s="18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="143" spans="2:2" ht="14.25">
@@ -10071,7 +10548,7 @@
     </row>
     <row r="144" spans="2:2" ht="14.25">
       <c r="B144" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="145" spans="2:2" ht="14.25">
@@ -10079,17 +10556,17 @@
     </row>
     <row r="146" spans="2:2" ht="14.25">
       <c r="B146" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="147" spans="2:2" ht="14.25">
       <c r="B147" s="18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="148" spans="2:2" ht="14.25">
       <c r="B148" s="18" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="149" spans="2:2" ht="14.25">
@@ -10097,12 +10574,12 @@
     </row>
     <row r="150" spans="2:2" ht="14.25">
       <c r="B150" s="18" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="151" spans="2:2" ht="14.25">
       <c r="B151" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="152" spans="2:2" ht="14.25">
@@ -10110,7 +10587,7 @@
     </row>
     <row r="153" spans="2:2" ht="14.25">
       <c r="B153" s="18" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="154" spans="2:2" ht="14.25">
@@ -10133,17 +10610,17 @@
     </row>
     <row r="160" spans="2:2" ht="14.25">
       <c r="B160" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="161" spans="2:2" ht="14.25">
       <c r="B161" s="18" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="162" spans="2:2" ht="14.25">
       <c r="B162" s="18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="163" spans="2:2" ht="14.25">
@@ -10151,17 +10628,17 @@
     </row>
     <row r="164" spans="2:2" ht="14.25">
       <c r="B164" s="18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="165" spans="2:2" ht="14.25">
       <c r="B165" s="18" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="166" spans="2:2" ht="14.25">
       <c r="B166" s="18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="167" spans="2:2" ht="14.25">
@@ -10169,17 +10646,17 @@
     </row>
     <row r="168" spans="2:2" ht="14.25">
       <c r="B168" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="169" spans="2:2" ht="14.25">
       <c r="B169" s="18" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="170" spans="2:2" ht="14.25">
       <c r="B170" s="18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="171" spans="2:2" ht="14.25">
@@ -10187,7 +10664,7 @@
     </row>
     <row r="172" spans="2:2" ht="14.25">
       <c r="B172" s="18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="173" spans="2:2" ht="14.25">
@@ -10195,7 +10672,7 @@
     </row>
     <row r="174" spans="2:2" ht="14.25">
       <c r="B174" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="175" spans="2:2" ht="14.25">
@@ -10203,67 +10680,67 @@
     </row>
     <row r="176" spans="2:2" ht="14.25">
       <c r="B176" s="18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="177" spans="2:2" ht="14.25">
       <c r="B177" s="18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="178" spans="2:2" ht="14.25">
       <c r="B178" s="18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="179" spans="2:2" ht="14.25">
       <c r="B179" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="180" spans="2:2" ht="14.25">
       <c r="B180" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="181" spans="2:2" ht="14.25">
       <c r="B181" s="18" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="182" spans="2:2" ht="14.25">
       <c r="B182" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="183" spans="2:2" ht="14.25">
       <c r="B183" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="184" spans="2:2" ht="14.25">
       <c r="B184" s="18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="185" spans="2:2" ht="14.25">
       <c r="B185" s="18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="186" spans="2:2" ht="14.25">
       <c r="B186" s="18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="187" spans="2:2" ht="14.25">
       <c r="B187" s="18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="188" spans="2:2" ht="14.25">
       <c r="B188" s="18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="189" spans="2:2" ht="14.25">
@@ -10271,37 +10748,37 @@
     </row>
     <row r="190" spans="2:2" ht="14.25">
       <c r="B190" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="191" spans="2:2" ht="14.25">
       <c r="B191" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="192" spans="2:2" ht="14.25">
       <c r="B192" s="18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="193" spans="2:2" ht="14.25">
       <c r="B193" s="18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="194" spans="2:2" ht="14.25">
       <c r="B194" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="195" spans="2:2" ht="14.25">
       <c r="B195" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="196" spans="2:2" ht="14.25">
       <c r="B196" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="197" spans="2:2" ht="14.25">
@@ -10309,22 +10786,22 @@
     </row>
     <row r="198" spans="2:2" ht="14.25">
       <c r="B198" s="18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="199" spans="2:2" ht="14.25">
       <c r="B199" s="18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="200" spans="2:2" ht="14.25">
       <c r="B200" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="201" spans="2:2" ht="14.25">
       <c r="B201" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="202" spans="2:2" ht="14.25">
@@ -10332,7 +10809,7 @@
     </row>
     <row r="203" spans="2:2" ht="14.25">
       <c r="B203" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="204" spans="2:2" ht="14.25">
@@ -10340,122 +10817,122 @@
     </row>
     <row r="205" spans="2:2" ht="14.25">
       <c r="B205" s="18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="206" spans="2:2" ht="14.25">
       <c r="B206" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="207" spans="2:2" ht="14.25">
       <c r="B207" s="18" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="208" spans="2:2" ht="14.25">
       <c r="B208" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="209" spans="2:2" ht="14.25">
       <c r="B209" s="18" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="210" spans="2:2" ht="14.25">
       <c r="B210" s="18" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="211" spans="2:2" ht="14.25">
       <c r="B211" s="18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="212" spans="2:2" ht="14.25">
       <c r="B212" s="18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="213" spans="2:2" ht="14.25">
       <c r="B213" s="18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="214" spans="2:2" ht="14.25">
       <c r="B214" s="18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="215" spans="2:2" ht="14.25">
       <c r="B215" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="216" spans="2:2" ht="14.25">
       <c r="B216" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="217" spans="2:2" ht="14.25">
       <c r="B217" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="218" spans="2:2" ht="14.25">
       <c r="B218" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="219" spans="2:2" ht="14.25">
       <c r="B219" s="18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="220" spans="2:2" ht="14.25">
       <c r="B220" s="18" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="221" spans="2:2" ht="14.25">
       <c r="B221" s="18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="222" spans="2:2" ht="14.25">
       <c r="B222" s="18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="223" spans="2:2" ht="14.25">
       <c r="B223" s="18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="224" spans="2:2" ht="14.25">
       <c r="B224" s="18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="225" spans="2:2" ht="14.25">
       <c r="B225" s="18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="226" spans="2:2" ht="14.25">
       <c r="B226" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="227" spans="2:2" ht="14.25">
       <c r="B227" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="228" spans="2:2" ht="14.25">
       <c r="B228" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="229" spans="2:2" ht="14.25">
@@ -10466,327 +10943,327 @@
     </row>
     <row r="231" spans="2:2">
       <c r="B231" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="232" spans="2:2" ht="14.25">
       <c r="B232" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="233" spans="2:2" ht="14.25">
       <c r="B233" s="18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="234" spans="2:2" ht="14.25">
       <c r="B234" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="235" spans="2:2" ht="14.25">
       <c r="B235" s="18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="236" spans="2:2" ht="14.25">
       <c r="B236" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="237" spans="2:2" ht="14.25">
       <c r="B237" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="238" spans="2:2" ht="14.25">
       <c r="B238" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="239" spans="2:2" ht="14.25">
       <c r="B239" s="18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="240" spans="2:2" ht="14.25">
       <c r="B240" s="18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="241" spans="2:2" ht="14.25">
       <c r="B241" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="242" spans="2:2" ht="14.25">
       <c r="B242" s="18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="243" spans="2:2" ht="14.25">
       <c r="B243" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="244" spans="2:2" ht="14.25">
       <c r="B244" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="245" spans="2:2" ht="14.25">
       <c r="B245" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="246" spans="2:2" ht="14.25">
       <c r="B246" s="18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="247" spans="2:2" ht="14.25">
       <c r="B247" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="248" spans="2:2" ht="14.25">
       <c r="B248" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="249" spans="2:2" ht="14.25">
       <c r="B249" s="18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="250" spans="2:2" ht="14.25">
       <c r="B250" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="251" spans="2:2" ht="14.25">
       <c r="B251" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="252" spans="2:2" ht="14.25">
       <c r="B252" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="253" spans="2:2" ht="14.25">
       <c r="B253" s="18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="254" spans="2:2" ht="14.25">
       <c r="B254" s="18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="255" spans="2:2" ht="14.25">
       <c r="B255" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="256" spans="2:2" ht="14.25">
       <c r="B256" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="257" spans="2:2" ht="14.25">
       <c r="B257" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="258" spans="2:2" ht="14.25">
       <c r="B258" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="259" spans="2:2" ht="14.25">
       <c r="B259" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="260" spans="2:2" ht="14.25">
       <c r="B260" s="18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="261" spans="2:2" ht="14.25">
       <c r="B261" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="262" spans="2:2" ht="14.25">
       <c r="B262" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="263" spans="2:2" ht="14.25">
       <c r="B263" s="18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="264" spans="2:2" ht="14.25">
       <c r="B264" s="18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="265" spans="2:2" ht="14.25">
       <c r="B265" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="266" spans="2:2" ht="14.25">
       <c r="B266" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="267" spans="2:2" ht="14.25">
       <c r="B267" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="268" spans="2:2" ht="14.25">
       <c r="B268" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="269" spans="2:2" ht="14.25">
       <c r="B269" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="270" spans="2:2" ht="14.25">
       <c r="B270" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="271" spans="2:2" ht="14.25">
       <c r="B271" s="18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="272" spans="2:2" ht="14.25">
       <c r="B272" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="273" spans="2:2" ht="14.25">
       <c r="B273" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="274" spans="2:2" ht="14.25">
       <c r="B274" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="275" spans="2:2" ht="14.25">
       <c r="B275" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="276" spans="2:2" ht="14.25">
       <c r="B276" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="277" spans="2:2" ht="14.25">
       <c r="B277" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="278" spans="2:2" ht="14.25">
       <c r="B278" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="279" spans="2:2" ht="14.25">
       <c r="B279" s="18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="280" spans="2:2" ht="14.25">
       <c r="B280" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="281" spans="2:2" ht="14.25">
       <c r="B281" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="282" spans="2:2" ht="14.25">
       <c r="B282" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="283" spans="2:2" ht="14.25">
       <c r="B283" s="18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="284" spans="2:2" ht="14.25">
       <c r="B284" s="18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="285" spans="2:2" ht="14.25">
       <c r="B285" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="286" spans="2:2" ht="14.25">
       <c r="B286" s="18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="287" spans="2:2" ht="14.25">
       <c r="B287" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="288" spans="2:2" ht="14.25">
       <c r="B288" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="289" spans="2:2" ht="14.25">
       <c r="B289" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="290" spans="2:2" ht="14.25">
       <c r="B290" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="291" spans="2:2" ht="14.25">
       <c r="B291" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="292" spans="2:2" ht="14.25">
       <c r="B292" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="293" spans="2:2" ht="14.25">
       <c r="B293" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="294" spans="2:2" ht="14.25">
       <c r="B294" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="295" spans="2:2" ht="14.25">
       <c r="B295" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="296" spans="2:2" ht="14.25">
@@ -10797,1012 +11274,1012 @@
     </row>
     <row r="298" spans="2:2" ht="14.25">
       <c r="B298" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="299" spans="2:2" ht="14.25">
       <c r="B299" s="18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="300" spans="2:2" ht="14.25">
       <c r="B300" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="301" spans="2:2" ht="14.25">
       <c r="B301" s="18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="302" spans="2:2" ht="14.25">
       <c r="B302" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="303" spans="2:2" ht="14.25">
       <c r="B303" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="304" spans="2:2" ht="14.25">
       <c r="B304" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="305" spans="2:2" ht="14.25">
       <c r="B305" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="306" spans="2:2" ht="14.25">
       <c r="B306" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="307" spans="2:2" ht="14.25">
       <c r="B307" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="308" spans="2:2" ht="14.25">
       <c r="B308" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="309" spans="2:2" ht="14.25">
       <c r="B309" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="310" spans="2:2" ht="14.25">
       <c r="B310" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="311" spans="2:2" ht="14.25">
       <c r="B311" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="312" spans="2:2" ht="14.25">
       <c r="B312" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="313" spans="2:2" ht="14.25">
       <c r="B313" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="314" spans="2:2" ht="14.25">
       <c r="B314" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="315" spans="2:2" ht="14.25">
       <c r="B315" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="316" spans="2:2" ht="14.25">
       <c r="B316" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="317" spans="2:2" ht="14.25">
       <c r="B317" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="318" spans="2:2" ht="14.25">
       <c r="B318" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="319" spans="2:2" ht="14.25">
       <c r="B319" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="320" spans="2:2" ht="14.25">
       <c r="B320" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="321" spans="2:2" ht="14.25">
       <c r="B321" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="322" spans="2:2" ht="14.25">
       <c r="B322" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="323" spans="2:2" ht="14.25">
       <c r="B323" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="324" spans="2:2" ht="14.25">
       <c r="B324" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="325" spans="2:2" ht="14.25">
       <c r="B325" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="326" spans="2:2" ht="14.25">
       <c r="B326" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="327" spans="2:2" ht="14.25">
       <c r="B327" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="328" spans="2:2" ht="14.25">
       <c r="B328" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="329" spans="2:2" ht="14.25">
       <c r="B329" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="330" spans="2:2" ht="14.25">
       <c r="B330" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="331" spans="2:2" ht="14.25">
       <c r="B331" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="332" spans="2:2" ht="14.25">
       <c r="B332" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="333" spans="2:2" ht="14.25">
       <c r="B333" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="334" spans="2:2" ht="14.25">
       <c r="B334" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="335" spans="2:2" ht="14.25">
       <c r="B335" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="336" spans="2:2" ht="14.25">
       <c r="B336" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="337" spans="2:2" ht="14.25">
       <c r="B337" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="338" spans="2:2" ht="14.25">
       <c r="B338" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="339" spans="2:2" ht="14.25">
       <c r="B339" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="340" spans="2:2" ht="14.25">
       <c r="B340" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="341" spans="2:2" ht="14.25">
       <c r="B341" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="342" spans="2:2" ht="14.25">
       <c r="B342" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="343" spans="2:2" ht="14.25">
       <c r="B343" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="344" spans="2:2" ht="14.25">
       <c r="B344" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="345" spans="2:2" ht="14.25">
       <c r="B345" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="346" spans="2:2" ht="14.25">
       <c r="B346" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="347" spans="2:2" ht="14.25">
       <c r="B347" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="348" spans="2:2" ht="14.25">
       <c r="B348" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="349" spans="2:2" ht="14.25">
       <c r="B349" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="350" spans="2:2" ht="14.25">
       <c r="B350" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="351" spans="2:2" ht="14.25">
       <c r="B351" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="352" spans="2:2" ht="14.25">
       <c r="B352" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="353" spans="2:2" ht="14.25">
       <c r="B353" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="354" spans="2:2" ht="14.25">
       <c r="B354" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="355" spans="2:2" ht="14.25">
       <c r="B355" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="356" spans="2:2" ht="14.25">
       <c r="B356" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="357" spans="2:2" ht="14.25">
       <c r="B357" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="358" spans="2:2" ht="14.25">
       <c r="B358" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="359" spans="2:2" ht="14.25">
       <c r="B359" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="360" spans="2:2" ht="14.25">
       <c r="B360" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="361" spans="2:2" ht="14.25">
       <c r="B361" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="362" spans="2:2" ht="14.25">
       <c r="B362" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="363" spans="2:2" ht="14.25">
       <c r="B363" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="364" spans="2:2" ht="14.25">
       <c r="B364" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="365" spans="2:2" ht="14.25">
       <c r="B365" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="366" spans="2:2" ht="14.25">
       <c r="B366" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="367" spans="2:2" ht="14.25">
       <c r="B367" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="368" spans="2:2" ht="14.25">
       <c r="B368" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="369" spans="2:2" ht="14.25">
       <c r="B369" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="370" spans="2:2" ht="14.25">
       <c r="B370" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="371" spans="2:2" ht="14.25">
       <c r="B371" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="372" spans="2:2" ht="14.25">
       <c r="B372" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="373" spans="2:2" ht="14.25">
       <c r="B373" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="374" spans="2:2" ht="14.25">
       <c r="B374" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="375" spans="2:2" ht="14.25">
       <c r="B375" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="376" spans="2:2" ht="14.25">
       <c r="B376" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="377" spans="2:2" ht="14.25">
       <c r="B377" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="378" spans="2:2" ht="14.25">
       <c r="B378" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="379" spans="2:2" ht="14.25">
       <c r="B379" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="380" spans="2:2" ht="14.25">
       <c r="B380" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="381" spans="2:2" ht="14.25">
       <c r="B381" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="382" spans="2:2" ht="14.25">
       <c r="B382" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="383" spans="2:2" ht="14.25">
       <c r="B383" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="384" spans="2:2" ht="14.25">
       <c r="B384" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="385" spans="2:2" ht="14.25">
       <c r="B385" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="386" spans="2:2" ht="14.25">
       <c r="B386" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="387" spans="2:2" ht="14.25">
       <c r="B387" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="388" spans="2:2" ht="14.25">
       <c r="B388" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="389" spans="2:2" ht="14.25">
       <c r="B389" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="390" spans="2:2" ht="14.25">
       <c r="B390" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="391" spans="2:2" ht="14.25">
       <c r="B391" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="392" spans="2:2" ht="14.25">
       <c r="B392" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="393" spans="2:2" ht="14.25">
       <c r="B393" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="394" spans="2:2" ht="14.25">
       <c r="B394" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="395" spans="2:2" ht="14.25">
       <c r="B395" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="396" spans="2:2" ht="14.25">
       <c r="B396" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="397" spans="2:2" ht="14.25">
       <c r="B397" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="398" spans="2:2" ht="14.25">
       <c r="B398" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="399" spans="2:2" ht="14.25">
       <c r="B399" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="400" spans="2:2" ht="14.25">
       <c r="B400" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="401" spans="2:2" ht="14.25">
       <c r="B401" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="402" spans="2:2" ht="14.25">
       <c r="B402" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="403" spans="2:2" ht="14.25">
       <c r="B403" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="404" spans="2:2" ht="14.25">
       <c r="B404" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="405" spans="2:2" ht="14.25">
       <c r="B405" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="406" spans="2:2" ht="14.25">
       <c r="B406" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="407" spans="2:2" ht="14.25">
       <c r="B407" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="408" spans="2:2" ht="14.25">
       <c r="B408" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="409" spans="2:2" ht="14.25">
       <c r="B409" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="410" spans="2:2" ht="14.25">
       <c r="B410" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="411" spans="2:2" ht="14.25">
       <c r="B411" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="412" spans="2:2" ht="14.25">
       <c r="B412" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="413" spans="2:2" ht="14.25">
       <c r="B413" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="414" spans="2:2" ht="14.25">
       <c r="B414" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="415" spans="2:2" ht="14.25">
       <c r="B415" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="416" spans="2:2" ht="14.25">
       <c r="B416" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="417" spans="2:2" ht="14.25">
       <c r="B417" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="418" spans="2:2" ht="14.25">
       <c r="B418" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="419" spans="2:2" ht="14.25">
       <c r="B419" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="420" spans="2:2" ht="14.25">
       <c r="B420" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="421" spans="2:2" ht="14.25">
       <c r="B421" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="422" spans="2:2" ht="14.25">
       <c r="B422" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="423" spans="2:2" ht="14.25">
       <c r="B423" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="424" spans="2:2" ht="14.25">
       <c r="B424" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="425" spans="2:2" ht="14.25">
       <c r="B425" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="426" spans="2:2" ht="14.25">
       <c r="B426" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="427" spans="2:2" ht="14.25">
       <c r="B427" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="428" spans="2:2" ht="14.25">
       <c r="B428" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="429" spans="2:2" ht="14.25">
       <c r="B429" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="430" spans="2:2" ht="14.25">
       <c r="B430" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="431" spans="2:2" ht="14.25">
       <c r="B431" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="432" spans="2:2" ht="14.25">
       <c r="B432" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="433" spans="2:2" ht="14.25">
       <c r="B433" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="434" spans="2:2" ht="14.25">
       <c r="B434" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="435" spans="2:2" ht="14.25">
       <c r="B435" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="436" spans="2:2" ht="14.25">
       <c r="B436" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="437" spans="2:2" ht="14.25">
       <c r="B437" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="438" spans="2:2" ht="14.25">
       <c r="B438" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="439" spans="2:2" ht="14.25">
       <c r="B439" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="440" spans="2:2" ht="14.25">
       <c r="B440" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="441" spans="2:2" ht="14.25">
       <c r="B441" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="442" spans="2:2" ht="14.25">
       <c r="B442" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="443" spans="2:2" ht="14.25">
       <c r="B443" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="444" spans="2:2" ht="14.25">
       <c r="B444" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="445" spans="2:2" ht="14.25">
       <c r="B445" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="446" spans="2:2" ht="14.25">
       <c r="B446" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="447" spans="2:2" ht="14.25">
       <c r="B447" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="448" spans="2:2" ht="14.25">
       <c r="B448" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="449" spans="2:2" ht="14.25">
       <c r="B449" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="450" spans="2:2" ht="14.25">
       <c r="B450" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="451" spans="2:2" ht="14.25">
       <c r="B451" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="452" spans="2:2" ht="14.25">
       <c r="B452" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="453" spans="2:2" ht="14.25">
       <c r="B453" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="454" spans="2:2">
       <c r="B454" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="455" spans="2:2" ht="14.25">
       <c r="B455" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="456" spans="2:2" ht="14.25">
       <c r="B456" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="457" spans="2:2" ht="14.25">
       <c r="B457" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="458" spans="2:2" ht="14.25">
       <c r="B458" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="459" spans="2:2" ht="14.25">
       <c r="B459" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="460" spans="2:2" ht="14.25">
       <c r="B460" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="461" spans="2:2" ht="14.25">
       <c r="B461" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="462" spans="2:2" ht="14.25">
       <c r="B462" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="463" spans="2:2" ht="14.25">
       <c r="B463" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="464" spans="2:2" ht="14.25">
       <c r="B464" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="465" spans="2:2" ht="14.25">
       <c r="B465" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="466" spans="2:2" ht="14.25">
       <c r="B466" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="467" spans="2:2" ht="14.25">
       <c r="B467" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="468" spans="2:2" ht="14.25">
       <c r="B468" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="469" spans="2:2" ht="14.25">
       <c r="B469" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="470" spans="2:2" ht="14.25">
       <c r="B470" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="471" spans="2:2" ht="14.25">
       <c r="B471" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="472" spans="2:2" ht="14.25">
       <c r="B472" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="473" spans="2:2" ht="14.25">
       <c r="B473" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="474" spans="2:2" ht="14.25">
       <c r="B474" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="475" spans="2:2" ht="14.25">
       <c r="B475" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="476" spans="2:2" ht="14.25">
       <c r="B476" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="477" spans="2:2" ht="14.25">
       <c r="B477" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="478" spans="2:2" ht="14.25">
       <c r="B478" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="479" spans="2:2" ht="14.25">
       <c r="B479" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="480" spans="2:2" ht="14.25">
       <c r="B480" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="481" spans="2:2" ht="14.25">
       <c r="B481" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="482" spans="2:2" ht="14.25">
       <c r="B482" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="483" spans="2:2" ht="14.25">
       <c r="B483" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="484" spans="2:2" ht="14.25">
       <c r="B484" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="485" spans="2:2" ht="14.25">
       <c r="B485" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="486" spans="2:2" ht="14.25">
       <c r="B486" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="487" spans="2:2" ht="14.25">
       <c r="B487" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="488" spans="2:2" ht="14.25">
       <c r="B488" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="489" spans="2:2" ht="14.25">
       <c r="B489" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="490" spans="2:2" ht="14.25">
       <c r="B490" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="491" spans="2:2" ht="14.25">
       <c r="B491" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="492" spans="2:2" ht="14.25">
       <c r="B492" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="493" spans="2:2" ht="14.25">
       <c r="B493" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="494" spans="2:2" ht="14.25">
       <c r="B494" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="495" spans="2:2" ht="14.25">
       <c r="B495" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="496" spans="2:2" ht="14.25">
       <c r="B496" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="497" spans="2:2" ht="14.25">
       <c r="B497" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="498" spans="2:2" ht="14.25">
       <c r="B498" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="499" spans="2:2" ht="14.25">
       <c r="B499" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="500" spans="2:2" ht="14.25">
@@ -11810,87 +12287,87 @@
     </row>
     <row r="501" spans="2:2" ht="14.25">
       <c r="B501" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="502" spans="2:2" ht="14.25">
       <c r="B502" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="503" spans="2:2" ht="14.25">
       <c r="B503" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="504" spans="2:2" ht="14.25">
       <c r="B504" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="505" spans="2:2" ht="14.25">
       <c r="B505" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="506" spans="2:2">
       <c r="B506" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="507" spans="2:2" ht="14.25">
       <c r="B507" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="508" spans="2:2">
       <c r="B508" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="509" spans="2:2" ht="14.25">
       <c r="B509" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="510" spans="2:2">
       <c r="B510" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="511" spans="2:2" ht="14.25">
       <c r="B511" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="512" spans="2:2" ht="14.25">
       <c r="B512" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="513" spans="2:2" ht="14.25">
       <c r="B513" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="514" spans="2:2" ht="14.25">
       <c r="B514" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="515" spans="2:2" ht="14.25">
       <c r="B515" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="516" spans="2:2" ht="14.25">
       <c r="B516" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="517" spans="2:2" ht="14.25">
       <c r="B517" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="518" spans="2:2" ht="14.25">
@@ -11901,232 +12378,232 @@
     </row>
     <row r="520" spans="2:2" ht="14.25">
       <c r="B520" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="521" spans="2:2" ht="14.25">
       <c r="B521" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="522" spans="2:2" ht="14.25">
       <c r="B522" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="523" spans="2:2" ht="14.25">
       <c r="B523" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="524" spans="2:2" ht="14.25">
       <c r="B524" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="525" spans="2:2" ht="14.25">
       <c r="B525" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="526" spans="2:2" ht="14.25">
       <c r="B526" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="527" spans="2:2" ht="14.25">
       <c r="B527" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="528" spans="2:2" ht="14.25">
       <c r="B528" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="529" spans="2:2" ht="14.25">
       <c r="B529" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="530" spans="2:2" ht="14.25">
       <c r="B530" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="531" spans="2:2" ht="14.25">
       <c r="B531" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="532" spans="2:2" ht="14.25">
       <c r="B532" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="533" spans="2:2" ht="14.25">
       <c r="B533" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="534" spans="2:2" ht="14.25">
       <c r="B534" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="535" spans="2:2" ht="14.25">
       <c r="B535" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="536" spans="2:2" ht="14.25">
       <c r="B536" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="537" spans="2:2" ht="14.25">
       <c r="B537" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="538" spans="2:2" ht="14.25">
       <c r="B538" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="539" spans="2:2" ht="14.25">
       <c r="B539" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="540" spans="2:2" ht="14.25">
       <c r="B540" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="541" spans="2:2" ht="14.25">
       <c r="B541" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="542" spans="2:2" ht="14.25">
       <c r="B542" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="543" spans="2:2" ht="14.25">
       <c r="B543" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="544" spans="2:2" ht="14.25">
       <c r="B544" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="545" spans="2:2" ht="14.25">
       <c r="B545" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="546" spans="2:2" ht="14.25">
       <c r="B546" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="547" spans="2:2" ht="14.25">
       <c r="B547" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="548" spans="2:2" ht="14.25">
       <c r="B548" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="549" spans="2:2" ht="14.25">
       <c r="B549" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="550" spans="2:2" ht="14.25">
       <c r="B550" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="551" spans="2:2" ht="14.25">
       <c r="B551" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="552" spans="2:2" ht="14.25">
       <c r="B552" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="553" spans="2:2" ht="14.25">
       <c r="B553" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="554" spans="2:2" ht="14.25">
       <c r="B554" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="555" spans="2:2" ht="14.25">
       <c r="B555" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="556" spans="2:2" ht="14.25">
       <c r="B556" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="557" spans="2:2" ht="14.25">
       <c r="B557" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="558" spans="2:2" ht="14.25">
       <c r="B558" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="559" spans="2:2" ht="14.25">
       <c r="B559" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="560" spans="2:2" ht="14.25">
       <c r="B560" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="561" spans="1:3" ht="14.25">
       <c r="B561" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="562" spans="1:3" ht="14.25">
       <c r="B562" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="563" spans="1:3" ht="14.25">
       <c r="B563" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="564" spans="1:3" ht="14.25">
       <c r="B564" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="565" spans="1:3" ht="14.25">
       <c r="B565" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="566" spans="1:3" ht="14.25">
@@ -12140,7 +12617,7 @@
     </row>
     <row r="569" spans="1:3" ht="21.75" thickBot="1">
       <c r="A569" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B569" s="18"/>
     </row>
@@ -12149,15 +12626,15 @@
         <v>4</v>
       </c>
       <c r="C570" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="571" spans="1:3" ht="15" thickBot="1">
       <c r="B571" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C571" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="572" spans="1:3" ht="15" thickBot="1">
@@ -12165,7 +12642,7 @@
         <v>5</v>
       </c>
       <c r="C572" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="573" spans="1:3" ht="15" thickBot="1">
@@ -12173,7 +12650,7 @@
         <v>6</v>
       </c>
       <c r="C573" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="574" spans="1:3" ht="15" thickBot="1">
@@ -12181,15 +12658,15 @@
         <v>15</v>
       </c>
       <c r="C574" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="575" spans="1:3" ht="15" thickBot="1">
       <c r="B575" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C575" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="576" spans="1:3" ht="15" thickBot="1">
@@ -12197,7 +12674,7 @@
         <v>7</v>
       </c>
       <c r="C576" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="577" spans="2:3" ht="15" thickBot="1">
@@ -12205,7 +12682,7 @@
         <v>2</v>
       </c>
       <c r="C577" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="578" spans="2:3" ht="15" thickBot="1">
@@ -12213,23 +12690,23 @@
         <v>3</v>
       </c>
       <c r="C578" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="579" spans="2:3" ht="15" thickBot="1">
       <c r="B579" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C579" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="580" spans="2:3" ht="15" thickBot="1">
       <c r="B580" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C580" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -12261,19 +12738,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20.25">
       <c r="A1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>74</v>
-      </c>
       <c r="E1" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -12281,13 +12758,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" s="6"/>
     </row>
@@ -12514,6 +12991,202 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75">
+      <c r="A1" s="34" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75">
+      <c r="A3" s="34" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>541</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" thickBot="1">
+      <c r="A1" s="32" t="s">
+        <v>510</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickBot="1">
+      <c r="B2" s="27" t="s">
+        <v>511</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1">
+      <c r="B3" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1">
+      <c r="B4" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1">
+      <c r="B5" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1">
+      <c r="B6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1">
+      <c r="B7" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1">
+      <c r="B8" s="29" t="s">
+        <v>519</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1">
+      <c r="B9" s="29" t="s">
+        <v>521</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1">
+      <c r="B10" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1">
+      <c r="B11" s="29" t="s">
+        <v>524</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1">
+      <c r="B12" s="29" t="s">
+        <v>526</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1">
+      <c r="B13" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1">
+      <c r="B14" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18">
+      <c r="A16" s="33" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="15">
+      <c r="B17" s="31" t="s">
+        <v>531</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -12526,4 +13199,194 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="20.25">
+      <c r="A1" s="36" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="B2" s="35" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" s="37" t="s">
+        <v>545</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="39"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" s="35" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" s="40" t="s">
+        <v>546</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="42"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="45"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="45"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="45"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="45"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="45"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="45"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="45"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="45"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="45"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="45"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="45"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="43"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:I18"/>
+    <mergeCell ref="B3:I3"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>